--- a/biology/Botanique/Diospyros_korupensis/Diospyros_korupensis.xlsx
+++ b/biology/Botanique/Diospyros_korupensis/Diospyros_korupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diospyros korupensis est une espèce deplante à fleurs de la famille des Ebenaceae[1] originaire d'Afrique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diospyros korupensis est une espèce deplante à fleurs de la famille des Ebenaceae originaire d'Afrique. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un grand arbre[1] pouvant atteindre 25 m, croissant dans la forêt à feuilles persistantes des plaines avec des précipitations supérieures à 3 000 mm/an. Ses fleurs à corolles blanches sont fortement parfumées[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un grand arbre pouvant atteindre 25 m, croissant dans la forêt à feuilles persistantes des plaines avec des précipitations supérieures à 3 000 mm/an. Ses fleurs à corolles blanches sont fortement parfumées. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve plus de 1 000 spécimens dans la région du sud-ouest (dans le parc national du Korup) et sur le mont Cameroun à Bomana, Bakingili et Njonji[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve plus de 1 000 spécimens dans la région du sud-ouest (dans le parc national du Korup) et sur le mont Cameroun à Bomana, Bakingili et Njonji. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Dangers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considérée comme en voie de disparition car elle n’occupe qu’une superficie minimale de 36 km2. Elle est connue dans quatre localités et son aire de répartition continue à diminuer. Elle est éliminée à la suite du développement de l'agro-industrie dans la région du Mont Cameroun, en particulier à des altitudes inférieures[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considérée comme en voie de disparition car elle n’occupe qu’une superficie minimale de 36 km2. Elle est connue dans quatre localités et son aire de répartition continue à diminuer. Elle est éliminée à la suite du développement de l'agro-industrie dans la région du Mont Cameroun, en particulier à des altitudes inférieures. 
 </t>
         </is>
       </c>
